--- a/experiments/hybrid/pipeline.1-gram.weights.xlsx
+++ b/experiments/hybrid/pipeline.1-gram.weights.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2480</v>
+        <v>1968</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0339400574791296</v>
+        <v>0.0338534051227358</v>
       </c>
     </row>
     <row r="3">
@@ -466,36 +466,36 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1557</v>
+        <v>1255</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02130833447379225</v>
+        <v>0.021588426539143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>stupid</t>
+          <t>terrible</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1428</v>
+        <v>1091</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01954290406459559</v>
+        <v>0.01876730944558168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>terrible</t>
+          <t>stupid</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1391</v>
+        <v>1091</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01903654030381826</v>
+        <v>0.01876730944558168</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1359</v>
+        <v>1073</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0185986040782811</v>
+        <v>0.01845767464262983</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1249</v>
+        <v>994</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01709319830299712</v>
+        <v>0.01709872189634115</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1186</v>
+        <v>948</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01623101135897085</v>
+        <v>0.01630743295546419</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1046</v>
+        <v>830</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01431504037224579</v>
+        <v>0.01427760480277983</v>
       </c>
     </row>
     <row r="10">
@@ -557,49 +557,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>896</v>
+        <v>697</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01226221431504037</v>
+        <v>0.01198974764763559</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>annoying</t>
+          <t>ridiculous</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>795</v>
+        <v>649</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01087997810318872</v>
+        <v>0.01116405483976399</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ridiculous</t>
+          <t>gore</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>790</v>
+        <v>616</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01081155056794854</v>
+        <v>0.01059639103435226</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>gore</t>
+          <t>annoying</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>754</v>
+        <v>613</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01031887231421924</v>
+        <v>0.01054478523386029</v>
       </c>
     </row>
     <row r="14">
@@ -609,49 +609,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>746</v>
+        <v>593</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01020938825783495</v>
+        <v>0.01020074656391378</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>attempt</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>735</v>
+        <v>589</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01005884768030656</v>
+        <v>0.01013193882992448</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>attempt</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>716</v>
+        <v>581</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00979882304639387</v>
+        <v>0.009994323361945882</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>cheap</t>
+          <t>dull</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>691</v>
+        <v>543</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009456685370192966</v>
+        <v>0.00934064988904753</v>
       </c>
     </row>
     <row r="18">
@@ -661,75 +661,75 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>684</v>
+        <v>539</v>
       </c>
       <c r="C18" t="n">
-        <v>0.009360886820856713</v>
+        <v>0.009271842155058229</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>dull</t>
+          <t>cheap</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>677</v>
+        <v>538</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00926508827152046</v>
+        <v>0.009254640221560903</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>lame</t>
+          <t>apparently</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>652</v>
+        <v>526</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008922950595319556</v>
+        <v>0.009048217019593002</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>poorly</t>
+          <t>lame</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>644</v>
+        <v>525</v>
       </c>
       <c r="C21" t="n">
-        <v>0.008813466538935267</v>
+        <v>0.009031015086095677</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>avoid</t>
+          <t>poorly</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>643</v>
+        <v>512</v>
       </c>
       <c r="C22" t="n">
-        <v>0.008799781031887232</v>
+        <v>0.008807389950630452</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>apparently</t>
+          <t>avoid</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>640</v>
+        <v>511</v>
       </c>
       <c r="C23" t="n">
-        <v>0.008758724510743124</v>
+        <v>0.008790188017133126</v>
       </c>
     </row>
     <row r="24">
@@ -739,153 +739,153 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>636</v>
+        <v>508</v>
       </c>
       <c r="C24" t="n">
-        <v>0.008703982482550979</v>
+        <v>0.008738582216641151</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>predictable</t>
+          <t>saying</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>628</v>
+        <v>498</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00859449842616669</v>
+        <v>0.0085665628816679</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>saying</t>
+          <t>silly</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>621</v>
+        <v>487</v>
       </c>
       <c r="C26" t="n">
-        <v>0.008498699876830437</v>
+        <v>0.008377341613197323</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>silly</t>
+          <t>predictable</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>601</v>
+        <v>486</v>
       </c>
       <c r="C27" t="n">
-        <v>0.008224989735869714</v>
+        <v>0.008360139679699998</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>bunch</t>
+          <t>sorry</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="C28" t="n">
-        <v>0.008074449158341317</v>
+        <v>0.007964495209261522</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>badly</t>
+          <t>bunch</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>565</v>
+        <v>449</v>
       </c>
       <c r="C29" t="n">
-        <v>0.007732311482140413</v>
+        <v>0.00772366814029897</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>sorry</t>
+          <t>badly</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>565</v>
+        <v>445</v>
       </c>
       <c r="C30" t="n">
-        <v>0.007732311482140413</v>
+        <v>0.007654860406309669</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>mess</t>
+          <t>effort</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>541</v>
+        <v>429</v>
       </c>
       <c r="C31" t="n">
-        <v>0.007403859312987546</v>
+        <v>0.007379629470352467</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>unless</t>
+          <t>weak</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>536</v>
+        <v>423</v>
       </c>
       <c r="C32" t="n">
-        <v>0.007335431777747366</v>
+        <v>0.007276417869368517</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>mess</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>534</v>
+        <v>423</v>
       </c>
       <c r="C33" t="n">
-        <v>0.007308060763651293</v>
+        <v>0.007276417869368517</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>weak</t>
+          <t>unless</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>533</v>
+        <v>422</v>
       </c>
       <c r="C34" t="n">
-        <v>0.007294375256603257</v>
+        <v>0.007259215935871192</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>effort</t>
+          <t>review</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>533</v>
+        <v>419</v>
       </c>
       <c r="C35" t="n">
-        <v>0.007294375256603257</v>
+        <v>0.007207610135379216</v>
       </c>
     </row>
     <row r="36">
@@ -895,36 +895,36 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>522</v>
+        <v>414</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00714383467907486</v>
+        <v>0.007121600467892591</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>tried</t>
+          <t>zombie</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>515</v>
+        <v>412</v>
       </c>
       <c r="C37" t="n">
-        <v>0.007048036129738607</v>
+        <v>0.007087196600897941</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>zombie</t>
+          <t>dumb</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>510</v>
+        <v>403</v>
       </c>
       <c r="C38" t="n">
-        <v>0.006979608594498426</v>
+        <v>0.006932379199422015</v>
       </c>
     </row>
     <row r="39">
@@ -934,166 +934,166 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>498</v>
+        <v>403</v>
       </c>
       <c r="C39" t="n">
-        <v>0.006815382509921993</v>
+        <v>0.006932379199422015</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>editing</t>
+          <t>tried</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>493</v>
+        <v>402</v>
       </c>
       <c r="C40" t="n">
-        <v>0.006746954974681812</v>
+        <v>0.00691517726592469</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>dumb</t>
+          <t>minute</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>491</v>
+        <v>391</v>
       </c>
       <c r="C41" t="n">
-        <v>0.00671958396058574</v>
+        <v>0.006725955997454114</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>okay</t>
+          <t>fails</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>490</v>
+        <v>388</v>
       </c>
       <c r="C42" t="n">
-        <v>0.006705898453537704</v>
+        <v>0.006674350196962138</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>premise</t>
+          <t>okay</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>485</v>
+        <v>386</v>
       </c>
       <c r="C43" t="n">
-        <v>0.006637470918297523</v>
+        <v>0.006639946329967488</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>joke</t>
+          <t>editing</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>484</v>
+        <v>386</v>
       </c>
       <c r="C44" t="n">
-        <v>0.006623785411249487</v>
+        <v>0.006639946329967488</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>wasted</t>
+          <t>premise</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>483</v>
+        <v>385</v>
       </c>
       <c r="C45" t="n">
-        <v>0.006610099904201451</v>
+        <v>0.006622744396470163</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>minute</t>
+          <t>wasted</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>483</v>
+        <v>378</v>
       </c>
       <c r="C46" t="n">
-        <v>0.006610099904201451</v>
+        <v>0.006502330861988887</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>rent</t>
+          <t>die</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>482</v>
+        <v>376</v>
       </c>
       <c r="C47" t="n">
-        <v>0.006596414397153414</v>
+        <v>0.006467926994994238</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>fails</t>
+          <t>pointless</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>481</v>
+        <v>372</v>
       </c>
       <c r="C48" t="n">
-        <v>0.006582728890105379</v>
+        <v>0.006399119261004937</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>stay</t>
+          <t>joke</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>472</v>
+        <v>372</v>
       </c>
       <c r="C49" t="n">
-        <v>0.006459559326673053</v>
+        <v>0.006399119261004937</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>die</t>
+          <t>rent</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>467</v>
+        <v>371</v>
       </c>
       <c r="C50" t="n">
-        <v>0.006391131791432873</v>
+        <v>0.006381917327507612</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>pointless</t>
+          <t>stay</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>465</v>
+        <v>367</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0063637607773368</v>
+        <v>0.006313109593518312</v>
       </c>
     </row>
     <row r="52">
@@ -1103,88 +1103,88 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>460</v>
+        <v>367</v>
       </c>
       <c r="C52" t="n">
-        <v>0.00629533324209662</v>
+        <v>0.006313109593518312</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>somehow</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>455</v>
+        <v>365</v>
       </c>
       <c r="C53" t="n">
-        <v>0.006226905706856439</v>
+        <v>0.006278705726523661</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>sit</t>
+          <t>write</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>449</v>
+        <v>363</v>
       </c>
       <c r="C54" t="n">
-        <v>0.006144792664568222</v>
+        <v>0.006244301859529011</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>monster</t>
+          <t>imdb</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>448</v>
+        <v>361</v>
       </c>
       <c r="C55" t="n">
-        <v>0.006131107157520186</v>
+        <v>0.006209897992534361</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>somehow</t>
+          <t>material</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>441</v>
+        <v>361</v>
       </c>
       <c r="C56" t="n">
-        <v>0.006035308608183933</v>
+        <v>0.006209897992534361</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>imdb</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>440</v>
+        <v>353</v>
       </c>
       <c r="C57" t="n">
-        <v>0.006021623101135897</v>
+        <v>0.00607228252455576</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>sit</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>437</v>
+        <v>346</v>
       </c>
       <c r="C58" t="n">
-        <v>0.005980566579991789</v>
+        <v>0.005951868990074484</v>
       </c>
     </row>
     <row r="59">
@@ -1194,127 +1194,127 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>437</v>
+        <v>346</v>
       </c>
       <c r="C59" t="n">
-        <v>0.005980566579991789</v>
+        <v>0.005951868990074484</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>material</t>
+          <t>decided</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>437</v>
+        <v>342</v>
       </c>
       <c r="C60" t="n">
-        <v>0.005980566579991789</v>
+        <v>0.005883061256085184</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>possibly</t>
+          <t>kept</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>430</v>
+        <v>342</v>
       </c>
       <c r="C61" t="n">
-        <v>0.005884768030655536</v>
+        <v>0.005883061256085184</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>kept</t>
+          <t>nudity</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="C62" t="n">
-        <v>0.005884768030655536</v>
+        <v>0.005848657389090533</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>nudity</t>
+          <t>possibly</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>423</v>
+        <v>338</v>
       </c>
       <c r="C63" t="n">
-        <v>0.005788969481319283</v>
+        <v>0.005814253522095883</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>flat</t>
+          <t>credits</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>419</v>
+        <v>336</v>
       </c>
       <c r="C64" t="n">
-        <v>0.005734227453127138</v>
+        <v>0.005779849655101234</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>decided</t>
+          <t>imagine</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>419</v>
+        <v>330</v>
       </c>
       <c r="C65" t="n">
-        <v>0.005734227453127138</v>
+        <v>0.005676638054117283</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>writers</t>
+          <t>cheesy</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>418</v>
+        <v>330</v>
       </c>
       <c r="C66" t="n">
-        <v>0.005720541946079102</v>
+        <v>0.005676638054117283</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>imagine</t>
+          <t>gay</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>416</v>
+        <v>329</v>
       </c>
       <c r="C67" t="n">
-        <v>0.00569317093198303</v>
+        <v>0.005659436120619958</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>reviews</t>
+          <t>flat</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>416</v>
+        <v>329</v>
       </c>
       <c r="C68" t="n">
-        <v>0.00569317093198303</v>
+        <v>0.005659436120619958</v>
       </c>
     </row>
     <row r="69">
@@ -1324,179 +1324,179 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>411</v>
+        <v>329</v>
       </c>
       <c r="C69" t="n">
-        <v>0.005624743396742849</v>
+        <v>0.005659436120619958</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>zombies</t>
+          <t>pathetic</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>408</v>
+        <v>327</v>
       </c>
       <c r="C70" t="n">
-        <v>0.005583686875598741</v>
+        <v>0.005625032253625308</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>writers</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>408</v>
+        <v>326</v>
       </c>
       <c r="C71" t="n">
-        <v>0.005583686875598741</v>
+        <v>0.005607830320127983</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>otherwise</t>
+          <t>reviews</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>408</v>
+        <v>326</v>
       </c>
       <c r="C72" t="n">
-        <v>0.005583686875598741</v>
+        <v>0.005607830320127983</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>pathetic</t>
+          <t>average</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>407</v>
+        <v>324</v>
       </c>
       <c r="C73" t="n">
-        <v>0.005570001368550704</v>
+        <v>0.005573426453133332</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>cheesy</t>
+          <t>bored</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>406</v>
+        <v>318</v>
       </c>
       <c r="C74" t="n">
-        <v>0.005556315861502669</v>
+        <v>0.005470214852149382</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>credits</t>
+          <t>zombies</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>404</v>
+        <v>318</v>
       </c>
       <c r="C75" t="n">
-        <v>0.005528944847406596</v>
+        <v>0.005470214852149382</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>monster</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>401</v>
+        <v>316</v>
       </c>
       <c r="C76" t="n">
-        <v>0.005487888326262488</v>
+        <v>0.005435810985154731</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>shame</t>
+          <t>otherwise</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>398</v>
+        <v>315</v>
       </c>
       <c r="C77" t="n">
-        <v>0.00544683180511838</v>
+        <v>0.005418609051657406</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>bored</t>
+          <t>begin</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>393</v>
+        <v>315</v>
       </c>
       <c r="C78" t="n">
-        <v>0.005378404269878199</v>
+        <v>0.005418609051657406</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>393</v>
+        <v>312</v>
       </c>
       <c r="C79" t="n">
-        <v>0.005378404269878199</v>
+        <v>0.005367003251165431</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>expected</t>
+          <t>remake</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>392</v>
+        <v>312</v>
       </c>
       <c r="C80" t="n">
-        <v>0.005364718762830163</v>
+        <v>0.005367003251165431</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>needed</t>
+          <t>free</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>392</v>
+        <v>311</v>
       </c>
       <c r="C81" t="n">
-        <v>0.005364718762830163</v>
+        <v>0.005349801317668106</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>shame</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>390</v>
+        <v>309</v>
       </c>
       <c r="C82" t="n">
-        <v>0.00533734774873409</v>
+        <v>0.005315397450673456</v>
       </c>
     </row>
     <row r="83">
@@ -1506,23 +1506,23 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>388</v>
+        <v>309</v>
       </c>
       <c r="C83" t="n">
-        <v>0.005309976734638018</v>
+        <v>0.005315397450673456</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>footage</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>384</v>
+        <v>308</v>
       </c>
       <c r="C84" t="n">
-        <v>0.005255234706445874</v>
+        <v>0.00529819551717613</v>
       </c>
     </row>
     <row r="85">
@@ -1532,101 +1532,101 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>384</v>
+        <v>306</v>
       </c>
       <c r="C85" t="n">
-        <v>0.005255234706445874</v>
+        <v>0.00526379165018148</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>ask</t>
+          <t>sounds</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>381</v>
+        <v>306</v>
       </c>
       <c r="C86" t="n">
-        <v>0.005214178185301765</v>
+        <v>0.00526379165018148</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>begin</t>
+          <t>ask</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>380</v>
+        <v>305</v>
       </c>
       <c r="C87" t="n">
-        <v>0.005200492678253729</v>
+        <v>0.005246589716684155</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>footage</t>
+          <t>development</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>379</v>
+        <v>302</v>
       </c>
       <c r="C88" t="n">
-        <v>0.005186807171205694</v>
+        <v>0.00519498391619218</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>trash</t>
+          <t>spent</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>379</v>
+        <v>301</v>
       </c>
       <c r="C89" t="n">
-        <v>0.005186807171205694</v>
+        <v>0.005177781982694855</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>remake</t>
+          <t>girlfriend</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>379</v>
+        <v>301</v>
       </c>
       <c r="C90" t="n">
-        <v>0.005186807171205694</v>
+        <v>0.005177781982694855</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>forced</t>
+          <t>needed</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>379</v>
+        <v>301</v>
       </c>
       <c r="C91" t="n">
-        <v>0.005186807171205694</v>
+        <v>0.005177781982694855</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>gay</t>
+          <t>weird</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>378</v>
+        <v>301</v>
       </c>
       <c r="C92" t="n">
-        <v>0.005173121664157657</v>
+        <v>0.005177781982694855</v>
       </c>
     </row>
     <row r="93">
@@ -1636,738 +1636,738 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="C93" t="n">
-        <v>0.005145750650061585</v>
+        <v>0.005160580049197529</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>expected</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="C94" t="n">
-        <v>0.005104694128917476</v>
+        <v>0.00512617618220288</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>sounds</t>
+          <t>laughs</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="C95" t="n">
-        <v>0.005104694128917476</v>
+        <v>0.005108974248705555</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>directing</t>
+          <t>meant</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>372</v>
+        <v>297</v>
       </c>
       <c r="C96" t="n">
-        <v>0.005091008621869441</v>
+        <v>0.005108974248705555</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>forward</t>
+          <t>brain</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="C97" t="n">
-        <v>0.005077323114821404</v>
+        <v>0.00509177231520823</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>forced</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="C98" t="n">
-        <v>0.005063637607773368</v>
+        <v>0.005074570381710905</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>reading</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="C99" t="n">
-        <v>0.005049952100725332</v>
+        <v>0.00505736844821358</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>fake</t>
+          <t>box</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="C100" t="n">
-        <v>0.005049952100725332</v>
+        <v>0.00505736844821358</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>weird</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>368</v>
+        <v>292</v>
       </c>
       <c r="C101" t="n">
-        <v>0.005036266593677296</v>
+        <v>0.005022964581218929</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>incredibly</t>
+          <t>forward</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>368</v>
+        <v>291</v>
       </c>
       <c r="C102" t="n">
-        <v>0.005036266593677296</v>
+        <v>0.005005762647721604</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>cop</t>
+          <t>sadly</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>367</v>
+        <v>291</v>
       </c>
       <c r="C103" t="n">
-        <v>0.005022581086629259</v>
+        <v>0.005005762647721604</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>laughs</t>
+          <t>directing</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="C104" t="n">
-        <v>0.005008895579581223</v>
+        <v>0.004988560714224279</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>pay</t>
+          <t>trash</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>366</v>
+        <v>289</v>
       </c>
       <c r="C105" t="n">
-        <v>0.005008895579581223</v>
+        <v>0.004971358780726954</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>box</t>
+          <t>fake</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>365</v>
+        <v>288</v>
       </c>
       <c r="C106" t="n">
-        <v>0.004995210072533188</v>
+        <v>0.004954156847229629</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>sadly</t>
+          <t>question</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>364</v>
+        <v>288</v>
       </c>
       <c r="C107" t="n">
-        <v>0.004981524565485151</v>
+        <v>0.004954156847229629</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>incredibly</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>359</v>
+        <v>288</v>
       </c>
       <c r="C108" t="n">
-        <v>0.004913097030244971</v>
+        <v>0.004954156847229629</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>twist</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>358</v>
+        <v>287</v>
       </c>
       <c r="C109" t="n">
-        <v>0.004899411523196935</v>
+        <v>0.004936954913732304</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>attempts</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="C110" t="n">
-        <v>0.004885726016148898</v>
+        <v>0.004919752980234979</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>result</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>355</v>
+        <v>285</v>
       </c>
       <c r="C111" t="n">
-        <v>0.004858355002052826</v>
+        <v>0.004902551046737653</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>spent</t>
+          <t>reading</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>355</v>
+        <v>284</v>
       </c>
       <c r="C112" t="n">
-        <v>0.004858355002052826</v>
+        <v>0.004885349113240328</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>spoilers</t>
+          <t>comment</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>355</v>
+        <v>283</v>
       </c>
       <c r="C113" t="n">
-        <v>0.004858355002052826</v>
+        <v>0.004868147179743003</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>girlfriend</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>353</v>
+        <v>283</v>
       </c>
       <c r="C114" t="n">
-        <v>0.004830983987956753</v>
+        <v>0.004868147179743003</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>cop</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>353</v>
+        <v>283</v>
       </c>
       <c r="C115" t="n">
-        <v>0.004830983987956753</v>
+        <v>0.004868147179743003</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>ideas</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="C116" t="n">
-        <v>0.004803612973860682</v>
+        <v>0.004833743312748353</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>attempts</t>
+          <t>result</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="C117" t="n">
-        <v>0.004803612973860682</v>
+        <v>0.004833743312748353</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>filmmakers</t>
+          <t>pay</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="C118" t="n">
-        <v>0.004762556452716573</v>
+        <v>0.004833743312748353</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>brain</t>
+          <t>cover</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="C119" t="n">
-        <v>0.004762556452716573</v>
+        <v>0.004833743312748353</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>christmas</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>347</v>
+        <v>279</v>
       </c>
       <c r="C120" t="n">
-        <v>0.004748870945668537</v>
+        <v>0.004799339445753703</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>cover</t>
+          <t>f</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="C121" t="n">
-        <v>0.004721499931572465</v>
+        <v>0.004764935578759052</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>excuse</t>
+          <t>barely</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>343</v>
+        <v>277</v>
       </c>
       <c r="C122" t="n">
-        <v>0.004694128917476392</v>
+        <v>0.004764935578759052</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>ideas</t>
+          <t>crazy</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>342</v>
+        <v>275</v>
       </c>
       <c r="C123" t="n">
-        <v>0.004680443410428357</v>
+        <v>0.004730531711764402</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>plus</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C124" t="n">
-        <v>0.004680443410428357</v>
+        <v>0.004713329778267077</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>crazy</t>
+          <t>filmmakers</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>342</v>
+        <v>272</v>
       </c>
       <c r="C125" t="n">
-        <v>0.004680443410428357</v>
+        <v>0.004678925911272427</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>meant</t>
+          <t>appear</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="C126" t="n">
-        <v>0.00466675790338032</v>
+        <v>0.004678925911272427</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>worked</t>
+          <t>failed</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="C127" t="n">
-        <v>0.004653072396332284</v>
+        <v>0.004661723977775102</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>unbelievable</t>
+          <t>worked</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>339</v>
+        <v>271</v>
       </c>
       <c r="C128" t="n">
-        <v>0.004639386889284248</v>
+        <v>0.004661723977775102</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>barely</t>
+          <t>villain</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="C129" t="n">
-        <v>0.004612015875188176</v>
+        <v>0.004627320110780452</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>producers</t>
+          <t>wrote</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>336</v>
+        <v>269</v>
       </c>
       <c r="C130" t="n">
-        <v>0.004598330368140139</v>
+        <v>0.004627320110780452</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>appear</t>
+          <t>producers</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>336</v>
+        <v>269</v>
       </c>
       <c r="C131" t="n">
-        <v>0.004598330368140139</v>
+        <v>0.004627320110780452</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>twist</t>
+          <t>excuse</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="C132" t="n">
-        <v>0.004598330368140139</v>
+        <v>0.004610118177283126</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>plus</t>
+          <t>honestly</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="C133" t="n">
-        <v>0.004598330368140139</v>
+        <v>0.004592916243785801</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>slasher</t>
+          <t>nowhere</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>332</v>
+        <v>267</v>
       </c>
       <c r="C134" t="n">
-        <v>0.004543588339947995</v>
+        <v>0.004592916243785801</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>wrote</t>
+          <t>doctor</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>331</v>
+        <v>267</v>
       </c>
       <c r="C135" t="n">
-        <v>0.004529902832899959</v>
+        <v>0.004592916243785801</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>villain</t>
+          <t>c</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="C136" t="n">
-        <v>0.004529902832899959</v>
+        <v>0.004558512376791151</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>gun</t>
+          <t>apart</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="C137" t="n">
-        <v>0.004529902832899959</v>
+        <v>0.004558512376791151</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>makers</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="C138" t="n">
-        <v>0.004529902832899959</v>
+        <v>0.004541310443293826</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>island</t>
+          <t>somewhere</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>330</v>
+        <v>264</v>
       </c>
       <c r="C139" t="n">
-        <v>0.004516217325851923</v>
+        <v>0.004541310443293826</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>realize</t>
+          <t>slasher</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>330</v>
+        <v>263</v>
       </c>
       <c r="C140" t="n">
-        <v>0.004516217325851923</v>
+        <v>0.004524108509796501</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>disappointing</t>
+          <t>unbelievable</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>330</v>
+        <v>263</v>
       </c>
       <c r="C141" t="n">
-        <v>0.004516217325851923</v>
+        <v>0.004524108509796501</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>quickly</t>
+          <t>walk</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>329</v>
+        <v>262</v>
       </c>
       <c r="C142" t="n">
-        <v>0.004502531818803886</v>
+        <v>0.004506906576299176</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>spoilers</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>329</v>
+        <v>262</v>
       </c>
       <c r="C143" t="n">
-        <v>0.004502531818803886</v>
+        <v>0.004506906576299176</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>yeah</t>
+          <t>kills</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>329</v>
+        <v>262</v>
       </c>
       <c r="C144" t="n">
-        <v>0.004502531818803886</v>
+        <v>0.004506906576299176</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>honestly</t>
+          <t>yeah</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>328</v>
+        <v>262</v>
       </c>
       <c r="C145" t="n">
-        <v>0.004488846311755851</v>
+        <v>0.004506906576299176</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>doctor</t>
+          <t>gun</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>328</v>
+        <v>261</v>
       </c>
       <c r="C146" t="n">
-        <v>0.004488846311755851</v>
+        <v>0.004489704642801851</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>kills</t>
+          <t>realize</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="C147" t="n">
-        <v>0.004475160804707814</v>
+        <v>0.004472502709304525</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>previous</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>326</v>
+        <v>259</v>
       </c>
       <c r="C148" t="n">
-        <v>0.004461475297659778</v>
+        <v>0.0044553007758072</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>nowhere</t>
+          <t>christmas</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>326</v>
+        <v>258</v>
       </c>
       <c r="C149" t="n">
-        <v>0.004461475297659778</v>
+        <v>0.004438098842309876</v>
       </c>
     </row>
   </sheetData>
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02082353119735304</v>
+        <v>0.02070988027572862</v>
       </c>
     </row>
     <row r="3">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01607297342419597</v>
+        <v>0.01593300278147297</v>
       </c>
     </row>
     <row r="4">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01460075583954346</v>
+        <v>0.01452714959487241</v>
       </c>
     </row>
     <row r="5">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0142061408168531</v>
+        <v>0.01411899866973032</v>
       </c>
     </row>
     <row r="6">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01406954330899874</v>
+        <v>0.01396783166041843</v>
       </c>
     </row>
     <row r="7">
@@ -2473,36 +2473,36 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01321960326012719</v>
+        <v>0.01313641310920305</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>episodes</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>657</v>
+        <v>766</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009971618073368039</v>
+        <v>0.0115793929132906</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>episodes</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009956440572495333</v>
+        <v>0.009901439109928649</v>
       </c>
     </row>
     <row r="10">
@@ -2515,566 +2515,566 @@
         <v>654</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009926085570749921</v>
+        <v>0.00988632240899746</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>oscar</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009531470548059556</v>
+        <v>0.00988632240899746</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>supporting</t>
+          <t>oscar</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="C12" t="n">
-        <v>0.009258275532350844</v>
+        <v>0.009493288184786551</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>jack</t>
+          <t>supporting</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009182388027987312</v>
+        <v>0.009221187568025153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>moving</t>
+          <t>jack</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00910650052362378</v>
+        <v>0.009145604063369211</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>paul</t>
+          <t>moving</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C15" t="n">
-        <v>0.009076145521878368</v>
+        <v>0.009070020558713266</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>paul</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009015435518387542</v>
+        <v>0.009039787156850889</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>enjoyable</t>
+          <t>future</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008696708000060709</v>
+        <v>0.008979320353126133</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>romantic</t>
+          <t>enjoyable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008681530499188003</v>
+        <v>0.008661869633571169</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>superb</t>
+          <t>romantic</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C19" t="n">
-        <v>0.008635997996569885</v>
+        <v>0.008616519530777604</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>season</t>
+          <t>superb</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008347625479988465</v>
+        <v>0.008586286128915226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>greatest</t>
+          <t>tells</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C21" t="n">
-        <v>0.008332447979115759</v>
+        <v>0.008344418914016206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>tale</t>
+          <t>season</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="C22" t="n">
-        <v>0.008211027972134109</v>
+        <v>0.008314185512153828</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>animation</t>
+          <t>greatest</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="C23" t="n">
-        <v>0.008195850471261402</v>
+        <v>0.008299068811222639</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>tale</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="C24" t="n">
-        <v>0.008059252963407046</v>
+        <v>0.008178135203773128</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>realistic</t>
+          <t>animation</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="C25" t="n">
-        <v>0.007968187958170808</v>
+        <v>0.00814790180191075</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>york</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="C26" t="n">
-        <v>0.007786057947698332</v>
+        <v>0.008026968194461241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>french</t>
+          <t>realistic</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="C27" t="n">
-        <v>0.007664637940716682</v>
+        <v>0.00790603458701173</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>begins</t>
+          <t>york</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007558395434607738</v>
+        <v>0.007739750876768654</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ways</t>
+          <t>french</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="C29" t="n">
-        <v>0.007528040432862325</v>
+        <v>0.007633933970250332</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>atmosphere</t>
+          <t>begins</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C30" t="n">
-        <v>0.007482507930244206</v>
+        <v>0.007513000362800822</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>surprised</t>
+          <t>ways</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C31" t="n">
-        <v>0.007452152928498794</v>
+        <v>0.007497883661869633</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>perfectly</t>
+          <t>atmosphere</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C32" t="n">
-        <v>0.007436975427626088</v>
+        <v>0.007452533559076067</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>perfectly</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C33" t="n">
-        <v>0.007406620425880675</v>
+        <v>0.007407183456282501</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>powerful</t>
+          <t>surprised</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C34" t="n">
-        <v>0.007406620425880675</v>
+        <v>0.007392066755351312</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>beauty</t>
+          <t>among</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C35" t="n">
-        <v>0.007376265424135262</v>
+        <v>0.007376950054420123</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>famous</t>
+          <t>powerful</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C36" t="n">
-        <v>0.007361087923262555</v>
+        <v>0.007376950054420123</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>unique</t>
+          <t>famous</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C37" t="n">
-        <v>0.007209312914535492</v>
+        <v>0.007331599951626557</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>crime</t>
+          <t>beauty</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="C38" t="n">
-        <v>0.007133425410171961</v>
+        <v>0.007331599951626557</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>viewing</t>
+          <t>unique</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="C39" t="n">
-        <v>0.007103070408426548</v>
+        <v>0.007180432942314669</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>memorable</t>
+          <t>crime</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C40" t="n">
-        <v>0.007087892907553842</v>
+        <v>0.007104849437658725</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>dance</t>
+          <t>viewing</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C41" t="n">
-        <v>0.007027182904063017</v>
+        <v>0.007059499334865159</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>memorable</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C42" t="n">
-        <v>0.007027182904063017</v>
+        <v>0.007059499334865159</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>brought</t>
+          <t>dance</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C43" t="n">
-        <v>0.006966472900572192</v>
+        <v>0.006999032531140404</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>believable</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C44" t="n">
-        <v>0.006966472900572192</v>
+        <v>0.006983915830209215</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>disney</t>
+          <t>believable</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C45" t="n">
-        <v>0.006936117898826779</v>
+        <v>0.00692344902648446</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>society</t>
+          <t>disney</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>456</v>
       </c>
       <c r="C46" t="n">
-        <v>0.006920940397954073</v>
+        <v>0.006893215624622083</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>peter</t>
+          <t>brought</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C47" t="n">
-        <v>0.00689058539620866</v>
+        <v>0.006893215624622083</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>society</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C48" t="n">
-        <v>0.006875407895335954</v>
+        <v>0.006862982222759705</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>meets</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C49" t="n">
-        <v>0.006860230394463248</v>
+        <v>0.006847865521828516</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>soundtrack</t>
+          <t>meets</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>452</v>
       </c>
       <c r="C50" t="n">
-        <v>0.006860230394463248</v>
+        <v>0.006832748820897327</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>soundtrack</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>452</v>
       </c>
       <c r="C51" t="n">
-        <v>0.006860230394463248</v>
+        <v>0.006832748820897327</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>certain</t>
+          <t>form</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C52" t="n">
-        <v>0.006799520390972423</v>
+        <v>0.006817632119966138</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>certain</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C53" t="n">
-        <v>0.006753987888354304</v>
+        <v>0.006772282017172573</v>
       </c>
     </row>
     <row r="54">
@@ -3084,49 +3084,49 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C54" t="n">
-        <v>0.006753987888354304</v>
+        <v>0.006711815213447817</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>masterpiece</t>
+          <t>de</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C55" t="n">
-        <v>0.006708455385736185</v>
+        <v>0.006696698512516628</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>particular</t>
+          <t>masterpiece</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C56" t="n">
-        <v>0.00664774538224536</v>
+        <v>0.00666646511065425</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>th</t>
+          <t>particular</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>438</v>
       </c>
       <c r="C57" t="n">
-        <v>0.00664774538224536</v>
+        <v>0.006621115007860685</v>
       </c>
     </row>
     <row r="58">
@@ -3139,7 +3139,7 @@
         <v>431</v>
       </c>
       <c r="C58" t="n">
-        <v>0.006541502876136415</v>
+        <v>0.006515298101342363</v>
       </c>
     </row>
     <row r="59">
@@ -3152,46 +3152,46 @@
         <v>430</v>
       </c>
       <c r="C59" t="n">
-        <v>0.006526325375263709</v>
+        <v>0.006500181400411175</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>brings</t>
+          <t>fantasy</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C60" t="n">
-        <v>0.006465615371772884</v>
+        <v>0.006409481194824041</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>america</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C61" t="n">
-        <v>0.006465615371772884</v>
+        <v>0.006394364493892852</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>america</t>
+          <t>brings</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C62" t="n">
-        <v>0.006420082869154765</v>
+        <v>0.006379247792961664</v>
       </c>
     </row>
     <row r="63">
@@ -3204,59 +3204,59 @@
         <v>421</v>
       </c>
       <c r="C63" t="n">
-        <v>0.006389727867409352</v>
+        <v>0.006364131092030476</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>sweet</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C64" t="n">
-        <v>0.00635937286566394</v>
+        <v>0.00630366428830572</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>sweet</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C65" t="n">
-        <v>0.006344195364791233</v>
+        <v>0.006273430886443342</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>japanese</t>
+          <t>deal</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C66" t="n">
-        <v>0.006329017863918527</v>
+        <v>0.006273430886443342</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>deal</t>
+          <t>japanese</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C67" t="n">
-        <v>0.006313840363045821</v>
+        <v>0.006258314185512153</v>
       </c>
     </row>
     <row r="68">
@@ -3269,7 +3269,7 @@
         <v>413</v>
       </c>
       <c r="C68" t="n">
-        <v>0.006268307860427702</v>
+        <v>0.006243197484580965</v>
       </c>
     </row>
     <row r="69">
@@ -3279,10 +3279,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C69" t="n">
-        <v>0.006268307860427702</v>
+        <v>0.006228080783649777</v>
       </c>
     </row>
     <row r="70">
@@ -3295,7 +3295,7 @@
         <v>411</v>
       </c>
       <c r="C70" t="n">
-        <v>0.006237952858682289</v>
+        <v>0.006212964082718588</v>
       </c>
     </row>
     <row r="71">
@@ -3305,10 +3305,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C71" t="n">
-        <v>0.006222775357809583</v>
+        <v>0.00618273068085621</v>
       </c>
     </row>
     <row r="72">
@@ -3321,7 +3321,7 @@
         <v>408</v>
       </c>
       <c r="C72" t="n">
-        <v>0.006192420356064171</v>
+        <v>0.006167613979925021</v>
       </c>
     </row>
     <row r="73">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C73" t="n">
-        <v>0.006162065354318758</v>
+        <v>0.006122263877131454</v>
       </c>
     </row>
     <row r="74">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C74" t="n">
-        <v>0.006131710352573345</v>
+        <v>0.006092030475269078</v>
       </c>
     </row>
     <row r="75">
@@ -3360,7 +3360,7 @@
         <v>400</v>
       </c>
       <c r="C75" t="n">
-        <v>0.00607100034908252</v>
+        <v>0.006046680372475511</v>
       </c>
     </row>
     <row r="76">
@@ -3373,7 +3373,7 @@
         <v>398</v>
       </c>
       <c r="C76" t="n">
-        <v>0.006040645347337108</v>
+        <v>0.006016446970613133</v>
       </c>
     </row>
     <row r="77">
@@ -3386,72 +3386,72 @@
         <v>398</v>
       </c>
       <c r="C77" t="n">
-        <v>0.006040645347337108</v>
+        <v>0.006016446970613133</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>match</t>
+          <t>tony</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C78" t="n">
-        <v>0.006025467846464401</v>
+        <v>0.005986213568750755</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>tony</t>
+          <t>street</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C79" t="n">
-        <v>0.006025467846464401</v>
+        <v>0.00594086346595719</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>street</t>
+          <t>older</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>393</v>
       </c>
       <c r="C80" t="n">
-        <v>0.005964757842973576</v>
+        <v>0.00594086346595719</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>older</t>
+          <t>william</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C81" t="n">
-        <v>0.005964757842973576</v>
+        <v>0.005910630064094812</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>keeps</t>
+          <t>match</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C82" t="n">
-        <v>0.005964757842973576</v>
+        <v>0.005910630064094812</v>
       </c>
     </row>
     <row r="83">
@@ -3464,98 +3464,98 @@
         <v>391</v>
       </c>
       <c r="C83" t="n">
-        <v>0.005934402841228164</v>
+        <v>0.005910630064094812</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>william</t>
+          <t>keeps</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>391</v>
       </c>
       <c r="C84" t="n">
-        <v>0.005934402841228164</v>
+        <v>0.005910630064094812</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>meet</t>
+          <t>joe</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>390</v>
       </c>
       <c r="C85" t="n">
-        <v>0.005919225340355457</v>
+        <v>0.005895513363163623</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>unlike</t>
+          <t>meet</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>390</v>
       </c>
       <c r="C86" t="n">
-        <v>0.005919225340355457</v>
+        <v>0.005895513363163623</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>joe</t>
+          <t>unlike</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>390</v>
       </c>
       <c r="C87" t="n">
-        <v>0.005919225340355457</v>
+        <v>0.005895513363163623</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>dramatic</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C88" t="n">
-        <v>0.005904047839482751</v>
+        <v>0.005865279961301245</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>dramatic</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>388</v>
       </c>
       <c r="C89" t="n">
-        <v>0.005888870338610045</v>
+        <v>0.005865279961301245</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>subject</t>
+          <t>present</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>386</v>
       </c>
       <c r="C90" t="n">
-        <v>0.005858515336864632</v>
+        <v>0.005835046559438868</v>
       </c>
     </row>
     <row r="91">
@@ -3565,88 +3565,88 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C91" t="n">
-        <v>0.005858515336864632</v>
+        <v>0.00581992985850768</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>earlier</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C92" t="n">
-        <v>0.005858515336864632</v>
+        <v>0.005759463054782924</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>earlier</t>
+          <t>recommended</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C93" t="n">
-        <v>0.005797805333373806</v>
+        <v>0.005698996251058169</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>recommended</t>
+          <t>leaves</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C94" t="n">
-        <v>0.005737095329882981</v>
+        <v>0.005668762849195792</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>portrayal</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C95" t="n">
-        <v>0.005721917829010275</v>
+        <v>0.005653646148264603</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>leaves</t>
+          <t>business</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C96" t="n">
-        <v>0.005691562827264862</v>
+        <v>0.005653646148264603</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>portrayal</t>
+          <t>bill</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C97" t="n">
-        <v>0.005676385326392156</v>
+        <v>0.005638529447333414</v>
       </c>
     </row>
     <row r="98">
@@ -3656,36 +3656,36 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C98" t="n">
-        <v>0.00566120782551945</v>
+        <v>0.005623412746402225</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>bill</t>
+          <t>plenty</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C99" t="n">
-        <v>0.00566120782551945</v>
+        <v>0.005608296045471036</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>plenty</t>
+          <t>battle</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C100" t="n">
-        <v>0.005630852823774037</v>
+        <v>0.005578062643608659</v>
       </c>
     </row>
     <row r="101">
@@ -3695,23 +3695,23 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C101" t="n">
-        <v>0.005600497822028625</v>
+        <v>0.005562945942677471</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>battle</t>
+          <t>solid</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C102" t="n">
-        <v>0.005600497822028625</v>
+        <v>0.005517595839883904</v>
       </c>
     </row>
     <row r="103">
@@ -3721,75 +3721,75 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C103" t="n">
-        <v>0.005554965319410506</v>
+        <v>0.005517595839883904</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>solid</t>
+          <t>touching</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C104" t="n">
-        <v>0.005554965319410506</v>
+        <v>0.005502479138952715</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>political</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C105" t="n">
-        <v>0.005539787818537799</v>
+        <v>0.005502479138952715</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>touching</t>
+          <t>awesome</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C106" t="n">
-        <v>0.005539787818537799</v>
+        <v>0.005502479138952715</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>political</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>364</v>
       </c>
       <c r="C107" t="n">
-        <v>0.005524610317665093</v>
+        <v>0.005502479138952715</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>awesome</t>
+          <t>features</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C108" t="n">
-        <v>0.005524610317665093</v>
+        <v>0.005457129036159148</v>
       </c>
     </row>
     <row r="109">
@@ -3799,36 +3799,36 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C109" t="n">
-        <v>0.005494255315919681</v>
+        <v>0.005457129036159148</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>features</t>
+          <t>setting</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C110" t="n">
-        <v>0.005479077815046974</v>
+        <v>0.00544201233522796</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>setting</t>
+          <t>married</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C111" t="n">
-        <v>0.005463900314174268</v>
+        <v>0.005426895634296771</v>
       </c>
     </row>
     <row r="112">
@@ -3838,62 +3838,62 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C112" t="n">
-        <v>0.005448722813301562</v>
+        <v>0.005411778933365583</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>social</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C113" t="n">
-        <v>0.005448722813301562</v>
+        <v>0.005396662232434394</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>interested</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C114" t="n">
-        <v>0.005418367811556149</v>
+        <v>0.005381545531503205</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>interested</t>
+          <t>adventure</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C115" t="n">
-        <v>0.005403190310683443</v>
+        <v>0.005366428830572016</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>adventure</t>
+          <t>brothers</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C116" t="n">
-        <v>0.005403190310683443</v>
+        <v>0.005366428830572016</v>
       </c>
     </row>
     <row r="117">
@@ -3906,33 +3906,33 @@
         <v>355</v>
       </c>
       <c r="C117" t="n">
-        <v>0.005388012809810737</v>
+        <v>0.005366428830572016</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>brothers</t>
+          <t>terrific</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>355</v>
       </c>
       <c r="C118" t="n">
-        <v>0.005388012809810737</v>
+        <v>0.005366428830572016</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>terrific</t>
+          <t>animated</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C119" t="n">
-        <v>0.005388012809810737</v>
+        <v>0.005321078727778449</v>
       </c>
     </row>
     <row r="120">
@@ -3942,62 +3942,62 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C120" t="n">
-        <v>0.005357657808065324</v>
+        <v>0.005321078727778449</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>animated</t>
+          <t>western</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>352</v>
       </c>
       <c r="C121" t="n">
-        <v>0.005342480307192618</v>
+        <v>0.005321078727778449</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>western</t>
+          <t>leading</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C122" t="n">
-        <v>0.005342480307192618</v>
+        <v>0.005245495223122506</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>leading</t>
+          <t>portrayed</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C123" t="n">
-        <v>0.005281770303701793</v>
+        <v>0.005230378522191317</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>portrayed</t>
+          <t>towards</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C124" t="n">
-        <v>0.00525141530195638</v>
+        <v>0.005200145120328939</v>
       </c>
     </row>
     <row r="125">
@@ -4007,75 +4007,75 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C125" t="n">
-        <v>0.00525141530195638</v>
+        <v>0.005200145120328939</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>towards</t>
+          <t>noir</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C126" t="n">
-        <v>0.005221060300210968</v>
+        <v>0.005169911718466562</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>noir</t>
+          <t>kelly</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C127" t="n">
-        <v>0.005205882799338261</v>
+        <v>0.005154795017535373</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>outstanding</t>
+          <t>journey</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C128" t="n">
-        <v>0.005190705298465555</v>
+        <v>0.005154795017535373</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>kelly</t>
+          <t>directors</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C129" t="n">
-        <v>0.005190705298465555</v>
+        <v>0.005139678316604185</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>journey</t>
+          <t>outstanding</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C130" t="n">
-        <v>0.005175527797592849</v>
+        <v>0.005139678316604185</v>
       </c>
     </row>
     <row r="131">
@@ -4088,72 +4088,72 @@
         <v>340</v>
       </c>
       <c r="C131" t="n">
-        <v>0.005160350296720142</v>
+        <v>0.005139678316604185</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>mary</t>
+          <t>cold</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>339</v>
       </c>
       <c r="C132" t="n">
-        <v>0.005145172795847436</v>
+        <v>0.005124561615672996</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>caught</t>
+          <t>mary</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>339</v>
       </c>
       <c r="C133" t="n">
-        <v>0.005145172795847436</v>
+        <v>0.005124561615672996</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>fi</t>
+          <t>caught</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>339</v>
       </c>
       <c r="C134" t="n">
-        <v>0.005145172795847436</v>
+        <v>0.005124561615672996</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>rich</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C135" t="n">
-        <v>0.005145172795847436</v>
+        <v>0.005109444914741807</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>sci</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C136" t="n">
-        <v>0.005145172795847436</v>
+        <v>0.005094328213810618</v>
       </c>
     </row>
     <row r="137">
@@ -4163,166 +4163,166 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C137" t="n">
-        <v>0.00512999529497473</v>
+        <v>0.005094328213810618</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>rich</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C138" t="n">
-        <v>0.00512999529497473</v>
+        <v>0.005094328213810618</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>harry</t>
+          <t>manages</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>337</v>
       </c>
       <c r="C139" t="n">
-        <v>0.005114817794102024</v>
+        <v>0.005094328213810618</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>rare</t>
+          <t>harry</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>337</v>
       </c>
       <c r="C140" t="n">
-        <v>0.005114817794102024</v>
+        <v>0.005094328213810618</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>popular</t>
+          <t>appreciate</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C141" t="n">
-        <v>0.005114817794102024</v>
+        <v>0.005048978111017051</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>manages</t>
+          <t>century</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C142" t="n">
-        <v>0.005114817794102024</v>
+        <v>0.005033861410085863</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>spirit</t>
+          <t>moves</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C143" t="n">
-        <v>0.005099640293229317</v>
+        <v>0.005033861410085863</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>appreciate</t>
+          <t>spirit</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C144" t="n">
-        <v>0.005084462792356611</v>
+        <v>0.005033861410085863</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>moves</t>
+          <t>inside</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C145" t="n">
-        <v>0.005069285291483904</v>
+        <v>0.005033861410085863</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>century</t>
+          <t>deserves</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>333</v>
       </c>
       <c r="C146" t="n">
-        <v>0.005054107790611198</v>
+        <v>0.005033861410085863</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>inside</t>
+          <t>background</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>333</v>
       </c>
       <c r="C147" t="n">
-        <v>0.005054107790611198</v>
+        <v>0.005033861410085863</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>deserves</t>
+          <t>subtle</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>333</v>
       </c>
       <c r="C148" t="n">
-        <v>0.005054107790611198</v>
+        <v>0.005033861410085863</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>subtle</t>
+          <t>familiar</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C149" t="n">
-        <v>0.005054107790611198</v>
+        <v>0.005018744709154674</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/hybrid/pipeline.1-gram.weights.xlsx
+++ b/experiments/hybrid/pipeline.1-gram.weights.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1968</v>
+        <v>1760</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0338534051227358</v>
+        <v>0.03302931351574522</v>
       </c>
     </row>
     <row r="3">
@@ -466,36 +466,36 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1255</v>
+        <v>1134</v>
       </c>
       <c r="C3" t="n">
-        <v>0.021588426539143</v>
+        <v>0.02128138723116766</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>terrible</t>
+          <t>boring</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091</v>
+        <v>1029</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01876730944558168</v>
+        <v>0.01931088841346695</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>stupid</t>
+          <t>terrible</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1091</v>
+        <v>975</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01876730944558168</v>
+        <v>0.01829748902150659</v>
       </c>
     </row>
     <row r="6">
@@ -505,114 +505,114 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1073</v>
+        <v>966</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01845767464262983</v>
+        <v>0.01812858912284653</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>worse</t>
+          <t>stupid</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994</v>
+        <v>943</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01709872189634115</v>
+        <v>0.01769695604849304</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>supposed</t>
+          <t>worse</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>948</v>
+        <v>909</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01630743295546419</v>
+        <v>0.01705888976466614</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>horrible</t>
+          <t>supposed</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>830</v>
+        <v>874</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01427760480277983</v>
+        <v>0.01640205682543257</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>crap</t>
+          <t>horrible</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>697</v>
+        <v>754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01198974764763559</v>
+        <v>0.01415005817663176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ridiculous</t>
+          <t>crap</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>649</v>
+        <v>632</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01116405483976399</v>
+        <v>0.0118605262170176</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>gore</t>
+          <t>ridiculous</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01059639103435226</v>
+        <v>0.01099726006831063</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>annoying</t>
+          <t>gore</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>613</v>
+        <v>565</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01054478523386029</v>
+        <v>0.01060316030477048</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>save</t>
+          <t>annoying</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>593</v>
+        <v>549</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01020074656391378</v>
+        <v>0.01030289381826371</v>
       </c>
     </row>
     <row r="15">
@@ -622,322 +622,322 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>589</v>
+        <v>529</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01013193882992448</v>
+        <v>0.009927560710130241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>attempt</t>
+          <t>save</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>581</v>
+        <v>525</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009994323361945882</v>
+        <v>0.009852494088503546</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>dull</t>
+          <t>attempt</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00934064988904753</v>
+        <v>0.009608527568216792</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>seriously</t>
+          <t>dull</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>539</v>
+        <v>483</v>
       </c>
       <c r="C18" t="n">
-        <v>0.009271842155058229</v>
+        <v>0.009064294561423263</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>cheap</t>
+          <t>lame</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>538</v>
+        <v>475</v>
       </c>
       <c r="C19" t="n">
-        <v>0.009254640221560903</v>
+        <v>0.008914161318169876</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>apparently</t>
+          <t>cheap</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>526</v>
+        <v>475</v>
       </c>
       <c r="C20" t="n">
-        <v>0.009048217019593002</v>
+        <v>0.008914161318169876</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>lame</t>
+          <t>looked</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>525</v>
+        <v>469</v>
       </c>
       <c r="C21" t="n">
-        <v>0.009031015086095677</v>
+        <v>0.008801561385729835</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>poorly</t>
+          <t>apparently</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="C22" t="n">
-        <v>0.008807389950630452</v>
+        <v>0.008782794730323161</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>avoid</t>
+          <t>seriously</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="C23" t="n">
-        <v>0.008790188017133126</v>
+        <v>0.008707728108696468</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>clich</t>
+          <t>poorly</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>508</v>
+        <v>458</v>
       </c>
       <c r="C24" t="n">
-        <v>0.008738582216641151</v>
+        <v>0.008595128176256428</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>saying</t>
+          <t>clich</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0085665628816679</v>
+        <v>0.008595128176256428</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>silly</t>
+          <t>avoid</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="C26" t="n">
-        <v>0.008377341613197323</v>
+        <v>0.00855759486544308</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>predictable</t>
+          <t>saying</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="C27" t="n">
-        <v>0.008360139679699998</v>
+        <v>0.008238561723529632</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>sorry</t>
+          <t>silly</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007964495209261522</v>
+        <v>0.008201028412716286</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>bunch</t>
+          <t>predictable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00772366814029897</v>
+        <v>0.008182261757309612</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>badly</t>
+          <t>sorry</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="C30" t="n">
-        <v>0.007654860406309669</v>
+        <v>0.007713095372142776</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>effort</t>
+          <t>bunch</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="C31" t="n">
-        <v>0.007379629470352467</v>
+        <v>0.00761926209510941</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>weak</t>
+          <t>badly</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="C32" t="n">
-        <v>0.007276417869368517</v>
+        <v>0.007356528919415982</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>mess</t>
+          <t>weak</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="C33" t="n">
-        <v>0.007276417869368517</v>
+        <v>0.007225162331569268</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>unless</t>
+          <t>review</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="C34" t="n">
-        <v>0.007259215935871192</v>
+        <v>0.007206395676162595</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>sequel</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="C35" t="n">
-        <v>0.007207610135379216</v>
+        <v>0.007168862365349247</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>sequel</t>
+          <t>mess</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="C36" t="n">
-        <v>0.007121600467892591</v>
+        <v>0.007150095709942574</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>zombie</t>
+          <t>unless</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="C37" t="n">
-        <v>0.007087196600897941</v>
+        <v>0.007131329054535901</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>dumb</t>
+          <t>effort</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="C38" t="n">
-        <v>0.006932379199422015</v>
+        <v>0.007093795743722554</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>dialog</t>
+          <t>zombie</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="C39" t="n">
-        <v>0.006932379199422015</v>
+        <v>0.006868595878842473</v>
       </c>
     </row>
     <row r="40">
@@ -947,348 +947,348 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="C40" t="n">
-        <v>0.00691517726592469</v>
+        <v>0.006812295912622453</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>minute</t>
+          <t>dialog</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="C41" t="n">
-        <v>0.006725955997454114</v>
+        <v>0.006793529257215779</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>fails</t>
+          <t>dumb</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="C42" t="n">
-        <v>0.006674350196962138</v>
+        <v>0.006718462635589085</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>okay</t>
+          <t>minute</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="C43" t="n">
-        <v>0.006639946329967488</v>
+        <v>0.006624629358555718</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>editing</t>
+          <t>fails</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="C44" t="n">
-        <v>0.006639946329967488</v>
+        <v>0.006587096047742371</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>premise</t>
+          <t>okay</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="C45" t="n">
-        <v>0.006622744396470163</v>
+        <v>0.006530796081522351</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>wasted</t>
+          <t>premise</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="C46" t="n">
-        <v>0.006502330861988887</v>
+        <v>0.006512029426115677</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>die</t>
+          <t>editing</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="C47" t="n">
-        <v>0.006467926994994238</v>
+        <v>0.006436962804488984</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>pointless</t>
+          <t>whatever</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="C48" t="n">
-        <v>0.006399119261004937</v>
+        <v>0.006324362872048944</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>joke</t>
+          <t>wasted</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="C49" t="n">
-        <v>0.006399119261004937</v>
+        <v>0.00630559621664227</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>rent</t>
+          <t>pointless</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="C50" t="n">
-        <v>0.006381917327507612</v>
+        <v>0.006249296250422249</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>stay</t>
+          <t>imdb</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="C51" t="n">
-        <v>0.006313109593518312</v>
+        <v>0.006230529595015576</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>whatever</t>
+          <t>somehow</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="C52" t="n">
-        <v>0.006313109593518312</v>
+        <v>0.006211762939608903</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>somehow</t>
+          <t>material</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="C53" t="n">
-        <v>0.006278705726523661</v>
+        <v>0.006174229628795556</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>joke</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="C54" t="n">
-        <v>0.006244301859529011</v>
+        <v>0.006155462973388883</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>imdb</t>
+          <t>rent</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="C55" t="n">
-        <v>0.006209897992534361</v>
+        <v>0.006117929662575535</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>material</t>
+          <t>write</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="C56" t="n">
-        <v>0.006209897992534361</v>
+        <v>0.006099163007168862</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>stay</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="C57" t="n">
-        <v>0.00607228252455576</v>
+        <v>0.006005329730135495</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>sit</t>
+          <t>killing</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="C58" t="n">
-        <v>0.005951868990074484</v>
+        <v>0.005967796419322148</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>killing</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="C59" t="n">
-        <v>0.005951868990074484</v>
+        <v>0.005873963142288782</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>decided</t>
+          <t>kept</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="C60" t="n">
-        <v>0.005883061256085184</v>
+        <v>0.005817663176068761</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>kept</t>
+          <t>nudity</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="C61" t="n">
-        <v>0.005883061256085184</v>
+        <v>0.005761363209848741</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>nudity</t>
+          <t>possibly</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="C62" t="n">
-        <v>0.005848657389090533</v>
+        <v>0.005742596554442068</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>possibly</t>
+          <t>sit</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="C63" t="n">
-        <v>0.005814253522095883</v>
+        <v>0.005742596554442068</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>credits</t>
+          <t>cheesy</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="C64" t="n">
-        <v>0.005779849655101234</v>
+        <v>0.005723829899035394</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>imagine</t>
+          <t>decided</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="C65" t="n">
-        <v>0.005676638054117283</v>
+        <v>0.005686296588222047</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>cheesy</t>
+          <t>credits</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C66" t="n">
-        <v>0.005676638054117283</v>
+        <v>0.005667529932815374</v>
       </c>
     </row>
     <row r="67">
@@ -1298,88 +1298,88 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="C67" t="n">
-        <v>0.005659436120619958</v>
+        <v>0.005629996622002027</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>flat</t>
+          <t>writers</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="C68" t="n">
-        <v>0.005659436120619958</v>
+        <v>0.00559246331118868</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>plain</t>
+          <t>pathetic</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="C69" t="n">
-        <v>0.005659436120619958</v>
+        <v>0.005573696655782006</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>pathetic</t>
+          <t>average</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="C70" t="n">
-        <v>0.005625032253625308</v>
+        <v>0.00553616334496866</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>writers</t>
+          <t>imagine</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="C71" t="n">
-        <v>0.005607830320127983</v>
+        <v>0.005517396689561986</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>reviews</t>
+          <t>plain</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="C72" t="n">
-        <v>0.005607830320127983</v>
+        <v>0.005461096723341966</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>flat</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C73" t="n">
-        <v>0.005573426453133332</v>
+        <v>0.005423563412528619</v>
       </c>
     </row>
     <row r="74">
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="C74" t="n">
-        <v>0.005470214852149382</v>
+        <v>0.005386030101715272</v>
       </c>
     </row>
     <row r="75">
@@ -1402,62 +1402,62 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="C75" t="n">
-        <v>0.005470214852149382</v>
+        <v>0.005367263446308599</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>monster</t>
+          <t>otherwise</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="C76" t="n">
-        <v>0.005435810985154731</v>
+        <v>0.005310963480088578</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>otherwise</t>
+          <t>free</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="C77" t="n">
-        <v>0.005418609051657406</v>
+        <v>0.005310963480088578</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>begin</t>
+          <t>footage</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="C78" t="n">
-        <v>0.005418609051657406</v>
+        <v>0.005310963480088578</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>reviews</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="C79" t="n">
-        <v>0.005367003251165431</v>
+        <v>0.005310963480088578</v>
       </c>
     </row>
     <row r="80">
@@ -1467,23 +1467,23 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="C80" t="n">
-        <v>0.005367003251165431</v>
+        <v>0.005254663513868559</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>ask</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="C81" t="n">
-        <v>0.005349801317668106</v>
+        <v>0.005235896858461885</v>
       </c>
     </row>
     <row r="82">
@@ -1493,608 +1493,608 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="C82" t="n">
-        <v>0.005315397450673456</v>
+        <v>0.005217130203055212</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>garbage</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="C83" t="n">
-        <v>0.005315397450673456</v>
+        <v>0.005179596892241864</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>footage</t>
+          <t>monster</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="C84" t="n">
-        <v>0.00529819551717613</v>
+        <v>0.005160830236835191</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>laughable</t>
+          <t>begin</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="C85" t="n">
-        <v>0.00526379165018148</v>
+        <v>0.005142063581428518</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>sounds</t>
+          <t>laughable</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="C86" t="n">
-        <v>0.00526379165018148</v>
+        <v>0.005142063581428518</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>ask</t>
+          <t>sounds</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="C87" t="n">
-        <v>0.005246589716684155</v>
+        <v>0.005123296926021845</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>needed</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="C88" t="n">
-        <v>0.00519498391619218</v>
+        <v>0.005104530270615171</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>spent</t>
+          <t>garbage</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="C89" t="n">
-        <v>0.005177781982694855</v>
+        <v>0.005066996959801824</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>girlfriend</t>
+          <t>box</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="C90" t="n">
-        <v>0.005177781982694855</v>
+        <v>0.00504823030439515</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>needed</t>
+          <t>forward</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="C91" t="n">
-        <v>0.005177781982694855</v>
+        <v>0.00504823030439515</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>weird</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="C92" t="n">
-        <v>0.005177781982694855</v>
+        <v>0.00504823030439515</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>hardly</t>
+          <t>meant</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="C93" t="n">
-        <v>0.005160580049197529</v>
+        <v>0.00504823030439515</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>expected</t>
+          <t>weird</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="C94" t="n">
-        <v>0.00512617618220288</v>
+        <v>0.005010696993581804</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>laughs</t>
+          <t>girlfriend</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="C95" t="n">
-        <v>0.005108974248705555</v>
+        <v>0.005010696993581804</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>meant</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="C96" t="n">
-        <v>0.005108974248705555</v>
+        <v>0.004991930338175131</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>brain</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="C97" t="n">
-        <v>0.00509177231520823</v>
+        <v>0.004991930338175131</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>forced</t>
+          <t>expected</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="C98" t="n">
-        <v>0.005074570381710905</v>
+        <v>0.004973163682768457</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>forced</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C99" t="n">
-        <v>0.00505736844821358</v>
+        <v>0.004973163682768457</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>box</t>
+          <t>development</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C100" t="n">
-        <v>0.00505736844821358</v>
+        <v>0.004973163682768457</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>trash</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="C101" t="n">
-        <v>0.005022964581218929</v>
+        <v>0.00493563037195511</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>forward</t>
+          <t>laughs</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="C102" t="n">
-        <v>0.005005762647721604</v>
+        <v>0.004916863716548437</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>sadly</t>
+          <t>brain</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="C103" t="n">
-        <v>0.005005762647721604</v>
+        <v>0.004916863716548437</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>directing</t>
+          <t>cop</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C104" t="n">
-        <v>0.004988560714224279</v>
+        <v>0.004916863716548437</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>trash</t>
+          <t>fake</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C105" t="n">
-        <v>0.004971358780726954</v>
+        <v>0.004916863716548437</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>fake</t>
+          <t>sadly</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="C106" t="n">
-        <v>0.004954156847229629</v>
+        <v>0.00487933040573509</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>directing</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="C107" t="n">
-        <v>0.004954156847229629</v>
+        <v>0.00487933040573509</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>incredibly</t>
+          <t>spent</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="C108" t="n">
-        <v>0.004954156847229629</v>
+        <v>0.00487933040573509</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>twist</t>
+          <t>attempts</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="C109" t="n">
-        <v>0.004936954913732304</v>
+        <v>0.004860563750328417</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>attempts</t>
+          <t>result</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="C110" t="n">
-        <v>0.004919752980234979</v>
+        <v>0.00482303043951507</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>reading</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="C111" t="n">
-        <v>0.004902551046737653</v>
+        <v>0.004804263784108396</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>reading</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="C112" t="n">
-        <v>0.004885349113240328</v>
+        <v>0.004785497128701723</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="C113" t="n">
-        <v>0.004868147179743003</v>
+        <v>0.004747963817888376</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>hardly</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="C114" t="n">
-        <v>0.004868147179743003</v>
+        <v>0.004729197162481703</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>cop</t>
+          <t>comment</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="C115" t="n">
-        <v>0.004868147179743003</v>
+        <v>0.004691663851668356</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>ideas</t>
+          <t>twist</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="C116" t="n">
-        <v>0.004833743312748353</v>
+        <v>0.004654130540855009</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>result</t>
+          <t>appear</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="C117" t="n">
-        <v>0.004833743312748353</v>
+        <v>0.004654130540855009</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>pay</t>
+          <t>f</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="C118" t="n">
-        <v>0.004833743312748353</v>
+        <v>0.004654130540855009</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>cover</t>
+          <t>doctor</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="C119" t="n">
-        <v>0.004833743312748353</v>
+        <v>0.004654130540855009</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>filmmakers</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C120" t="n">
-        <v>0.004799339445753703</v>
+        <v>0.004654130540855009</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>barely</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="C121" t="n">
-        <v>0.004764935578759052</v>
+        <v>0.004654130540855009</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>barely</t>
+          <t>ideas</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="C122" t="n">
-        <v>0.004764935578759052</v>
+        <v>0.004635363885448335</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>crazy</t>
+          <t>incredibly</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="C123" t="n">
-        <v>0.004730531711764402</v>
+        <v>0.004616597230041662</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>plus</t>
+          <t>wrote</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C124" t="n">
-        <v>0.004713329778267077</v>
+        <v>0.004616597230041662</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>filmmakers</t>
+          <t>pay</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="C125" t="n">
-        <v>0.004678925911272427</v>
+        <v>0.004616597230041662</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>appear</t>
+          <t>failed</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="C126" t="n">
-        <v>0.004678925911272427</v>
+        <v>0.004597830574634989</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>makers</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="C127" t="n">
-        <v>0.004661723977775102</v>
+        <v>0.004597830574634989</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>worked</t>
+          <t>excuse</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="C128" t="n">
-        <v>0.004661723977775102</v>
+        <v>0.004579063919228315</v>
       </c>
     </row>
     <row r="129">
@@ -2104,192 +2104,192 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="C129" t="n">
-        <v>0.004627320110780452</v>
+        <v>0.004579063919228315</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>wrote</t>
+          <t>crazy</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="C130" t="n">
-        <v>0.004627320110780452</v>
+        <v>0.004560297263821642</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>producers</t>
+          <t>gun</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="C131" t="n">
-        <v>0.004627320110780452</v>
+        <v>0.004541530608414968</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>excuse</t>
+          <t>worked</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="C132" t="n">
-        <v>0.004610118177283126</v>
+        <v>0.004541530608414968</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>honestly</t>
+          <t>cover</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C133" t="n">
-        <v>0.004592916243785801</v>
+        <v>0.004541530608414968</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>nowhere</t>
+          <t>producers</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="C134" t="n">
-        <v>0.004592916243785801</v>
+        <v>0.004522763953008295</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>doctor</t>
+          <t>plus</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="C135" t="n">
-        <v>0.004592916243785801</v>
+        <v>0.004503997297601621</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>somewhere</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="C136" t="n">
-        <v>0.004558512376791151</v>
+        <v>0.004503997297601621</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>apart</t>
+          <t>walk</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="C137" t="n">
-        <v>0.004558512376791151</v>
+        <v>0.004503997297601621</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>makers</t>
+          <t>c</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="C138" t="n">
-        <v>0.004541310443293826</v>
+        <v>0.004503997297601621</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>somewhere</t>
+          <t>honestly</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="C139" t="n">
-        <v>0.004541310443293826</v>
+        <v>0.004485230642194948</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>slasher</t>
+          <t>nowhere</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="C140" t="n">
-        <v>0.004524108509796501</v>
+        <v>0.004466463986788275</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>unbelievable</t>
+          <t>fi</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C141" t="n">
-        <v>0.004524108509796501</v>
+        <v>0.004447697331381601</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>walk</t>
+          <t>realize</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C142" t="n">
-        <v>0.004506906576299176</v>
+        <v>0.004428930675974928</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>spoilers</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="C143" t="n">
-        <v>0.004506906576299176</v>
+        <v>0.004410164020568254</v>
       </c>
     </row>
     <row r="144">
@@ -2299,75 +2299,88 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="C144" t="n">
-        <v>0.004506906576299176</v>
+        <v>0.004410164020568254</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>yeah</t>
+          <t>slasher</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="C145" t="n">
-        <v>0.004506906576299176</v>
+        <v>0.004410164020568254</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>gun</t>
+          <t>sci</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="C146" t="n">
-        <v>0.004489704642801851</v>
+        <v>0.004391397365161581</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>realize</t>
+          <t>island</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="C147" t="n">
-        <v>0.004472502709304525</v>
+        <v>0.004391397365161581</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>previous</t>
+          <t>quickly</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0044553007758072</v>
+        <v>0.004353864054348234</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>christmas</t>
+          <t>unbelievable</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="C149" t="n">
-        <v>0.004438098842309876</v>
+        <v>0.004353864054348234</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>231</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.004335097398941561</v>
       </c>
     </row>
   </sheetData>
@@ -2381,7 +2394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2408,10 +2421,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1370</v>
+        <v>1253</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02070988027572862</v>
+        <v>0.02129141886151232</v>
       </c>
     </row>
     <row r="3">
@@ -2421,10 +2434,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1054</v>
+        <v>945</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01593300278147297</v>
+        <v>0.01605777400169923</v>
       </c>
     </row>
     <row r="4">
@@ -2434,62 +2447,62 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>961</v>
+        <v>869</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01452714959487241</v>
+        <v>0.01476635514018692</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>today</t>
+          <t>brilliant</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934</v>
+        <v>835</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01411899866973032</v>
+        <v>0.01418861512319456</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>brilliant</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>924</v>
+        <v>772</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01396783166041843</v>
+        <v>0.01311809685641461</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>fantastic</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>869</v>
+        <v>586</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01313641310920305</v>
+        <v>0.00995751911639762</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>strong</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>766</v>
+        <v>586</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0115793929132906</v>
+        <v>0.00995751911639762</v>
       </c>
     </row>
     <row r="9">
@@ -2499,114 +2512,114 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>655</v>
+        <v>570</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009901439109928649</v>
+        <v>0.009685641461342397</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>fantastic</t>
+          <t>oscar</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>654</v>
+        <v>545</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00988632240899746</v>
+        <v>0.009260832625318606</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>paul</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>654</v>
+        <v>544</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00988632240899746</v>
+        <v>0.009243840271877656</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>oscar</t>
+          <t>future</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>628</v>
+        <v>544</v>
       </c>
       <c r="C12" t="n">
-        <v>0.009493288184786551</v>
+        <v>0.009243840271877656</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>supporting</t>
+          <t>moving</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009221187568025153</v>
+        <v>0.009175870858113848</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>jack</t>
+          <t>supporting</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>605</v>
+        <v>534</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009145604063369211</v>
+        <v>0.00907391673746814</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>moving</t>
+          <t>jack</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>600</v>
+        <v>529</v>
       </c>
       <c r="C15" t="n">
-        <v>0.009070020558713266</v>
+        <v>0.008988954970263382</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>paul</t>
+          <t>superb</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>598</v>
+        <v>511</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009039787156850889</v>
+        <v>0.008683092608326254</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>romantic</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>594</v>
+        <v>508</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008979320353126133</v>
+        <v>0.008632115548003399</v>
       </c>
     </row>
     <row r="18">
@@ -2616,140 +2629,140 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>573</v>
+        <v>502</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008661869633571169</v>
+        <v>0.008530161427357689</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>romantic</t>
+          <t>season</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>570</v>
+        <v>494</v>
       </c>
       <c r="C19" t="n">
-        <v>0.008616519530777604</v>
+        <v>0.008394222599830076</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>superb</t>
+          <t>tale</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>568</v>
+        <v>490</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008586286128915226</v>
+        <v>0.008326253186066271</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>tells</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>552</v>
+        <v>484</v>
       </c>
       <c r="C21" t="n">
-        <v>0.008344418914016206</v>
+        <v>0.00822429906542056</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>season</t>
+          <t>greatest</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="C22" t="n">
-        <v>0.008314185512153828</v>
+        <v>0.00820730671197961</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>greatest</t>
+          <t>animation</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>549</v>
+        <v>476</v>
       </c>
       <c r="C23" t="n">
-        <v>0.008299068811222639</v>
+        <v>0.008088360237892948</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>tale</t>
+          <t>realistic</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="C24" t="n">
-        <v>0.008178135203773128</v>
+        <v>0.008054375531011045</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>animation</t>
+          <t>york</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>539</v>
+        <v>459</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00814790180191075</v>
+        <v>0.007799490229396772</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>ways</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>531</v>
+        <v>452</v>
       </c>
       <c r="C26" t="n">
-        <v>0.008026968194461241</v>
+        <v>0.00768054375531011</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>realistic</t>
+          <t>beauty</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>523</v>
+        <v>451</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00790603458701173</v>
+        <v>0.007663551401869159</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>york</t>
+          <t>perfectly</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007739750876768654</v>
+        <v>0.007578589634664401</v>
       </c>
     </row>
     <row r="29">
@@ -2759,36 +2772,36 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>505</v>
+        <v>443</v>
       </c>
       <c r="C29" t="n">
-        <v>0.007633933970250332</v>
+        <v>0.007527612574341546</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>begins</t>
+          <t>powerful</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="C30" t="n">
-        <v>0.007513000362800822</v>
+        <v>0.007510620220900595</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>ways</t>
+          <t>famous</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="C31" t="n">
-        <v>0.007497883661869633</v>
+        <v>0.007493627867459643</v>
       </c>
     </row>
     <row r="32">
@@ -2798,478 +2811,478 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C32" t="n">
-        <v>0.007452533559076067</v>
+        <v>0.00745964316057774</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>perfectly</t>
+          <t>begins</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>490</v>
+        <v>438</v>
       </c>
       <c r="C33" t="n">
-        <v>0.007407183456282501</v>
+        <v>0.007442650807136788</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>surprised</t>
+          <t>among</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>489</v>
+        <v>437</v>
       </c>
       <c r="C34" t="n">
-        <v>0.007392066755351312</v>
+        <v>0.007425658453695837</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>surprised</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>488</v>
+        <v>436</v>
       </c>
       <c r="C35" t="n">
-        <v>0.007376950054420123</v>
+        <v>0.007408666100254886</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>powerful</t>
+          <t>unique</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>488</v>
+        <v>430</v>
       </c>
       <c r="C36" t="n">
-        <v>0.007376950054420123</v>
+        <v>0.007306711979609175</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>famous</t>
+          <t>viewing</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="C37" t="n">
-        <v>0.007331599951626557</v>
+        <v>0.007221750212404418</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>beauty</t>
+          <t>memorable</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>485</v>
+        <v>421</v>
       </c>
       <c r="C38" t="n">
-        <v>0.007331599951626557</v>
+        <v>0.007153780798640611</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>unique</t>
+          <t>brought</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>475</v>
+        <v>417</v>
       </c>
       <c r="C39" t="n">
-        <v>0.007180432942314669</v>
+        <v>0.007085811384876806</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>crime</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>470</v>
+        <v>416</v>
       </c>
       <c r="C40" t="n">
-        <v>0.007104849437658725</v>
+        <v>0.007068819031435854</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>viewing</t>
+          <t>dance</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>467</v>
+        <v>416</v>
       </c>
       <c r="C41" t="n">
-        <v>0.007059499334865159</v>
+        <v>0.007068819031435854</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>memorable</t>
+          <t>soundtrack</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>467</v>
+        <v>414</v>
       </c>
       <c r="C42" t="n">
-        <v>0.007059499334865159</v>
+        <v>0.007034834324553951</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>dance</t>
+          <t>crime</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="C43" t="n">
-        <v>0.006999032531140404</v>
+        <v>0.007034834324553951</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>believable</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>462</v>
+        <v>410</v>
       </c>
       <c r="C44" t="n">
-        <v>0.006983915830209215</v>
+        <v>0.006966864910790144</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>believable</t>
+          <t>emotional</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="C45" t="n">
-        <v>0.00692344902648446</v>
+        <v>0.006966864910790144</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>disney</t>
+          <t>certain</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>456</v>
+        <v>410</v>
       </c>
       <c r="C46" t="n">
-        <v>0.006893215624622083</v>
+        <v>0.006966864910790144</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>brought</t>
+          <t>meets</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>456</v>
+        <v>407</v>
       </c>
       <c r="C47" t="n">
-        <v>0.006893215624622083</v>
+        <v>0.006915887850467289</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>society</t>
+          <t>disney</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>454</v>
+        <v>406</v>
       </c>
       <c r="C48" t="n">
-        <v>0.006862982222759705</v>
+        <v>0.006898895497026338</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>form</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="C49" t="n">
-        <v>0.006847865521828516</v>
+        <v>0.006881903143585387</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>meets</t>
+          <t>society</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>452</v>
+        <v>401</v>
       </c>
       <c r="C50" t="n">
-        <v>0.006832748820897327</v>
+        <v>0.00681393372982158</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>soundtrack</t>
+          <t>de</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>452</v>
+        <v>400</v>
       </c>
       <c r="C51" t="n">
-        <v>0.006832748820897327</v>
+        <v>0.006796941376380629</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>th</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="C52" t="n">
-        <v>0.006817632119966138</v>
+        <v>0.006779949022939677</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>certain</t>
+          <t>particular</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="C53" t="n">
-        <v>0.006772282017172573</v>
+        <v>0.006745964316057774</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>emotional</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="C54" t="n">
-        <v>0.006711815213447817</v>
+        <v>0.006745964316057774</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>follow</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>443</v>
+        <v>392</v>
       </c>
       <c r="C55" t="n">
-        <v>0.006696698512516628</v>
+        <v>0.006661002548853016</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>masterpiece</t>
+          <t>fantasy</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="C56" t="n">
-        <v>0.00666646511065425</v>
+        <v>0.006610025488530161</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>particular</t>
+          <t>masterpiece</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="C57" t="n">
-        <v>0.006621115007860685</v>
+        <v>0.006610025488530161</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>romance</t>
+          <t>japanese</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>431</v>
+        <v>388</v>
       </c>
       <c r="C58" t="n">
-        <v>0.006515298101342363</v>
+        <v>0.00659303313508921</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>jane</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>430</v>
+        <v>387</v>
       </c>
       <c r="C59" t="n">
-        <v>0.006500181400411175</v>
+        <v>0.006576040781648258</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>brings</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="C60" t="n">
-        <v>0.006409481194824041</v>
+        <v>0.006576040781648258</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>america</t>
+          <t>deal</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="C61" t="n">
-        <v>0.006394364493892852</v>
+        <v>0.006457094307561597</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>brings</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>422</v>
+        <v>378</v>
       </c>
       <c r="C62" t="n">
-        <v>0.006379247792961664</v>
+        <v>0.006423109600679694</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>america</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="C63" t="n">
-        <v>0.006364131092030476</v>
+        <v>0.006406117247238743</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>sweet</t>
+          <t>romance</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="C64" t="n">
-        <v>0.00630366428830572</v>
+        <v>0.006389124893797791</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>sweet</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="C65" t="n">
-        <v>0.006273430886443342</v>
+        <v>0.006372132540356839</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>deal</t>
+          <t>dream</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="C66" t="n">
-        <v>0.006273430886443342</v>
+        <v>0.006338147833474936</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>japanese</t>
+          <t>era</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="C67" t="n">
-        <v>0.006258314185512153</v>
+        <v>0.006338147833474936</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="C68" t="n">
-        <v>0.006243197484580965</v>
+        <v>0.006304163126593033</v>
       </c>
     </row>
     <row r="69">
@@ -3279,205 +3292,205 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="C69" t="n">
-        <v>0.006228080783649777</v>
+        <v>0.006287170773152081</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>deep</t>
+          <t>became</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="C70" t="n">
-        <v>0.006212964082718588</v>
+        <v>0.00627017841971113</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>became</t>
+          <t>deep</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="C71" t="n">
-        <v>0.00618273068085621</v>
+        <v>0.006219201359388275</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>dream</t>
+          <t>stewart</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="C72" t="n">
-        <v>0.006167613979925021</v>
+        <v>0.006185216652506372</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="C73" t="n">
-        <v>0.006122263877131454</v>
+        <v>0.006185216652506372</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>era</t>
+          <t>street</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="C74" t="n">
-        <v>0.006092030475269078</v>
+        <v>0.006134239592183517</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>learn</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="C75" t="n">
-        <v>0.006046680372475511</v>
+        <v>0.006117247238742566</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>learn</t>
+          <t>leads</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="C76" t="n">
-        <v>0.006016446970613133</v>
+        <v>0.006117247238742566</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>truth</t>
+          <t>william</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="C77" t="n">
-        <v>0.006016446970613133</v>
+        <v>0.006100254885301614</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>tony</t>
+          <t>jane</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="C78" t="n">
-        <v>0.005986213568750755</v>
+        <v>0.006049277824978759</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>street</t>
+          <t>keeps</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="C79" t="n">
-        <v>0.00594086346595719</v>
+        <v>0.006032285471537808</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>older</t>
+          <t>truth</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="C80" t="n">
-        <v>0.00594086346595719</v>
+        <v>0.006015293118096857</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>william</t>
+          <t>present</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="C81" t="n">
-        <v>0.005910630064094812</v>
+        <v>0.006015293118096857</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>match</t>
+          <t>unlike</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="C82" t="n">
-        <v>0.005910630064094812</v>
+        <v>0.005998300764655905</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>stewart</t>
+          <t>older</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="C83" t="n">
-        <v>0.005910630064094812</v>
+        <v>0.005998300764655905</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>keeps</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="C84" t="n">
-        <v>0.005910630064094812</v>
+        <v>0.005981308411214953</v>
       </c>
     </row>
     <row r="85">
@@ -3487,192 +3500,192 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="C85" t="n">
-        <v>0.005895513363163623</v>
+        <v>0.005964316057774002</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>meet</t>
+          <t>tony</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="C86" t="n">
-        <v>0.005895513363163623</v>
+        <v>0.00594732370433305</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>unlike</t>
+          <t>dramatic</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="C87" t="n">
-        <v>0.005895513363163623</v>
+        <v>0.005930331350892099</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>dramatic</t>
+          <t>meet</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="C88" t="n">
-        <v>0.005865279961301245</v>
+        <v>0.005930331350892099</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>recommended</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="C89" t="n">
-        <v>0.005865279961301245</v>
+        <v>0.005930331350892099</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>bill</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="C90" t="n">
-        <v>0.005835046559438868</v>
+        <v>0.005896346644010195</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>situation</t>
+          <t>earlier</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="C91" t="n">
-        <v>0.00581992985850768</v>
+        <v>0.005794392523364486</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>earlier</t>
+          <t>political</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="C92" t="n">
-        <v>0.005759463054782924</v>
+        <v>0.005777400169923535</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>recommended</t>
+          <t>return</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="C93" t="n">
-        <v>0.005698996251058169</v>
+        <v>0.00572642310960068</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>leaves</t>
+          <t>plenty</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="C94" t="n">
-        <v>0.005668762849195792</v>
+        <v>0.00572642310960068</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>portrayal</t>
+          <t>situation</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="C95" t="n">
-        <v>0.005653646148264603</v>
+        <v>0.005692438402718777</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>portrayal</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="C96" t="n">
-        <v>0.005653646148264603</v>
+        <v>0.005692438402718777</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>bill</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="C97" t="n">
-        <v>0.005638529447333414</v>
+        <v>0.005675446049277825</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>beautifully</t>
+          <t>awesome</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="C98" t="n">
-        <v>0.005623412746402225</v>
+        <v>0.005658453695836873</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>plenty</t>
+          <t>beautifully</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="C99" t="n">
-        <v>0.005608296045471036</v>
+        <v>0.005658453695836873</v>
       </c>
     </row>
     <row r="100">
@@ -3682,257 +3695,257 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C100" t="n">
-        <v>0.005578062643608659</v>
+        <v>0.005641461342395922</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>return</t>
+          <t>touching</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="C101" t="n">
-        <v>0.005562945942677471</v>
+        <v>0.005641461342395922</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>solid</t>
+          <t>setting</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="C102" t="n">
-        <v>0.005517595839883904</v>
+        <v>0.005641461342395922</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>features</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="C103" t="n">
-        <v>0.005517595839883904</v>
+        <v>0.005624468988954971</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>touching</t>
+          <t>business</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="C104" t="n">
-        <v>0.005502479138952715</v>
+        <v>0.005573491928632116</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>social</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="C105" t="n">
-        <v>0.005502479138952715</v>
+        <v>0.005573491928632116</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>awesome</t>
+          <t>match</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="C106" t="n">
-        <v>0.005502479138952715</v>
+        <v>0.00552251486830926</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>political</t>
+          <t>leaves</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="C107" t="n">
-        <v>0.005502479138952715</v>
+        <v>0.005505522514868309</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>features</t>
+          <t>married</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="C108" t="n">
-        <v>0.005457129036159148</v>
+        <v>0.005471537807986406</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>recently</t>
+          <t>brothers</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="C109" t="n">
-        <v>0.005457129036159148</v>
+        <v>0.005471537807986406</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>setting</t>
+          <t>animated</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="C110" t="n">
-        <v>0.00544201233522796</v>
+        <v>0.005454545454545455</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>mark</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="C111" t="n">
-        <v>0.005426895634296771</v>
+        <v>0.005437553101104503</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>mark</t>
+          <t>adventure</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="C112" t="n">
-        <v>0.005411778933365583</v>
+        <v>0.005437553101104503</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>solid</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="C113" t="n">
-        <v>0.005396662232434394</v>
+        <v>0.005437553101104503</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>interested</t>
+          <t>western</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="C114" t="n">
-        <v>0.005381545531503205</v>
+        <v>0.005420560747663551</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>adventure</t>
+          <t>leading</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="C115" t="n">
-        <v>0.005366428830572016</v>
+        <v>0.0054035683942226</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>brothers</t>
+          <t>cold</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="C116" t="n">
-        <v>0.005366428830572016</v>
+        <v>0.0054035683942226</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>sees</t>
+          <t>portrayed</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="C117" t="n">
-        <v>0.005366428830572016</v>
+        <v>0.005386576040781649</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>terrific</t>
+          <t>journey</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="C118" t="n">
-        <v>0.005366428830572016</v>
+        <v>0.005369583687340696</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>animated</t>
+          <t>recently</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="C119" t="n">
-        <v>0.005321078727778449</v>
+        <v>0.005369583687340696</v>
       </c>
     </row>
     <row r="120">
@@ -3942,140 +3955,140 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="C120" t="n">
-        <v>0.005321078727778449</v>
+        <v>0.005352591333899745</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>western</t>
+          <t>interested</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="C121" t="n">
-        <v>0.005321078727778449</v>
+        <v>0.005318606627017842</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>leading</t>
+          <t>success</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="C122" t="n">
-        <v>0.005245495223122506</v>
+        <v>0.005318606627017842</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>portrayed</t>
+          <t>terrific</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="C123" t="n">
-        <v>0.005230378522191317</v>
+        <v>0.005284621920135939</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>towards</t>
+          <t>noir</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="C124" t="n">
-        <v>0.005200145120328939</v>
+        <v>0.005267629566694987</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>smith</t>
+          <t>century</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="C125" t="n">
-        <v>0.005200145120328939</v>
+        <v>0.005267629566694987</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>noir</t>
+          <t>kelly</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="C126" t="n">
-        <v>0.005169911718466562</v>
+        <v>0.005250637213254036</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>kelly</t>
+          <t>caught</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="C127" t="n">
-        <v>0.005154795017535373</v>
+        <v>0.005250637213254036</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>journey</t>
+          <t>sees</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="C128" t="n">
-        <v>0.005154795017535373</v>
+        <v>0.005233644859813084</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>directors</t>
+          <t>towards</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="C129" t="n">
-        <v>0.005139678316604185</v>
+        <v>0.005233644859813084</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>outstanding</t>
+          <t>subtle</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="C130" t="n">
-        <v>0.005139678316604185</v>
+        <v>0.005216652506372132</v>
       </c>
     </row>
     <row r="131">
@@ -4085,244 +4098,257 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="C131" t="n">
-        <v>0.005139678316604185</v>
+        <v>0.005182667799490229</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>jim</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="C132" t="n">
-        <v>0.005124561615672996</v>
+        <v>0.005182667799490229</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>mary</t>
+          <t>scott</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="C133" t="n">
-        <v>0.005124561615672996</v>
+        <v>0.005165675446049278</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>caught</t>
+          <t>outstanding</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="C134" t="n">
-        <v>0.005124561615672996</v>
+        <v>0.005165675446049278</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>rich</t>
+          <t>acted</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="C135" t="n">
-        <v>0.005109444914741807</v>
+        <v>0.005165675446049278</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>popular</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="C136" t="n">
-        <v>0.005094328213810618</v>
+        <v>0.005148683092608327</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>charming</t>
+          <t>natural</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="C137" t="n">
-        <v>0.005094328213810618</v>
+        <v>0.005148683092608327</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>rare</t>
+          <t>open</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="C138" t="n">
-        <v>0.005094328213810618</v>
+        <v>0.005131690739167374</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>manages</t>
+          <t>deserves</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="C139" t="n">
-        <v>0.005094328213810618</v>
+        <v>0.005114698385726423</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>harry</t>
+          <t>charming</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="C140" t="n">
-        <v>0.005094328213810618</v>
+        <v>0.005114698385726423</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>appreciate</t>
+          <t>spirit</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="C141" t="n">
-        <v>0.005048978111017051</v>
+        <v>0.005097706032285472</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>century</t>
+          <t>familiar</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="C142" t="n">
-        <v>0.005033861410085863</v>
+        <v>0.005097706032285472</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>moves</t>
+          <t>creepy</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="C143" t="n">
-        <v>0.005033861410085863</v>
+        <v>0.005097706032285472</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>spirit</t>
+          <t>appreciate</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="C144" t="n">
-        <v>0.005033861410085863</v>
+        <v>0.00508071367884452</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>inside</t>
+          <t>secret</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="C145" t="n">
-        <v>0.005033861410085863</v>
+        <v>0.00508071367884452</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>deserves</t>
+          <t>pace</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C146" t="n">
-        <v>0.005033861410085863</v>
+        <v>0.005063721325403568</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>background</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C147" t="n">
-        <v>0.005033861410085863</v>
+        <v>0.005063721325403568</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>subtle</t>
+          <t>copy</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C148" t="n">
-        <v>0.005033861410085863</v>
+        <v>0.005063721325403568</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>familiar</t>
+          <t>moves</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="C149" t="n">
-        <v>0.005018744709154674</v>
+        <v>0.005046728971962617</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>manages</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>297</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.005046728971962617</v>
       </c>
     </row>
   </sheetData>
